--- a/tender_history.xlsx
+++ b/tender_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1736,6 +1736,1380 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>388386-2025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/388386-2025</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Germany – Software package and information systems – Softwarelösung zur Aufbereitung, Auswertung und Erstellung von Berichten für die Verwertung digitaler Daten in Verfahren des Bundeskartellamts
+Place of performance: Germany,Bonn, Kreisfreie Stadt
+Main nature of the contract: Supplies,Services
+Type of procedure: Restricted
+Official name: Bundeskartellamt</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>15/07/2025
+11:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>388383-2025</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/388383-2025</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Entwicklung, Hosting und Betrieb der "Digitalen Kundenschnittstelle" der SBK
+Place of performance: Germany,München, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: SBK Siemens-Betriebskrankenkasse</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>15/07/2025
+12:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>388354-2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/388354-2025</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Germany – Project management consultancy services – Tegel Projekt GmbH - Rahmenvertrag über IT-Serviceleistungen
+Place of performance: Germany,Berlin,Anywhere in the given country
+Main nature of the contract: Services
+Type of procedure: Restricted
+Official name: Tegel Projekt GmbH</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>388126-2025</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/388126-2025</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Landeskrankenhaus Andernach - Aufbau und Betrieb eines Security Operations Center (SOC)
+Place of performance: Germany,Mayen-Koblenz
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: Landeskrankenhaus AöR</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>14/07/2025
+10:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>388086-2025</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/388086-2025</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Landkreis Kulmbach - Digitales Gesundheitsamt 2025
+Place of performance: Germany,Kulmbach
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: Landkreis Kulmbach</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>387802-2025</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/387802-2025</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – fachliche Beratung und Unterstützungsleistungen im Rahmen der Transition und Transformation zur Umstellung auf ein IT-Servicemanagement-Betriebsmodell
+Place of performance: Germany,Hamburg
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: DAK-Gesundheit</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>14/07/2025
+12:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>387555-2025</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/387555-2025</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Unterstützungsleistungen Microsoft Exchange Server Infrastruktur 2025-50
+Place of performance: Germany,Hamburg
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Berufsgenossenschaft für Gesundheitsdienst und Wohlfahrtspflege (BGW)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>14/07/2025
+12:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>387492-2025</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/387492-2025</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Germany – Data collection and collation services – Fahrzeugdatenbeschaffung AP302 AIAMO
+Change notice
+Place of performance: Germany,Städteregion Aachen
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: ITS Germany e.V.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>30/06/2025
+12:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>387183-2025</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/387183-2025</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Germany – Software supply services – Beschaffung_Abrechnungssystem_2024
+Place of performance: Germany,Märkisch-Oderland
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: Stadtwerke Strausberg GmbH, Stadtwerke Ludwigsfelde GmbH, Stadtwerke Neuruppin GmbH</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>386931-2025</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/386931-2025</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Germany – Software supply services – Beschaffung einer Software "Learning Management System" für die Gesamtverwaltung
+Place of performance: Germany,Hochsauerlandkreis
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Hochsauerlandkreis</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>15/07/2025
+09:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>386896-2025</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/386896-2025</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Germany – Technical computer support services – 25003 - Klinikum Mittelbaden - SIEM &amp; SOC System
+Place of performance: Germany,Baden-Baden, Stadtkreis
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Klinikum Mittelbaden gGmbH</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>16/07/2025
+14:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>386602-2025</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/386602-2025</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Cloud Migrationspartner
+Place of performance: Germany,Hamburg
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: AIRSYS Airport Business Information Systems GmbH</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>14/07/2025
+10:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>386389-2025</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/386389-2025</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Externe Unterstützung bei der Modernisierung der Scanverfahren der DRV Bund
+Place of performance: Germany,Berlin
+Main nature of the contract: Services
+Type of procedure: Negotiated without prior call for competition
+Official name: DRV Bund Einkaufsmanagement</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>386368-2025</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/386368-2025</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Rahmenvertrag über den weiteren Ausbau des elektronischen Dokumentenmanagement- und Vorgangsbearbeitungssystems (DMS) Enaio
+Place of performance: Germany,Oldenburg (Oldenburg), Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Negotiated without prior call for competition
+Official name: Stadt Oldenburg (Oldb)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>386287-2025</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/386287-2025</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – IT25001 Betrieb und Weiterentwicklung des Typo3 Content-Management-Systems
+Place of performance: Germany,Karlsruhe, Stadtkreis
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Stadt Karlsruhe Hauptamt</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>385678-2025</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/385678-2025</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – SAP S/4HANA-Support Core &amp; IS_U
+Place of performance: Germany,Wesermarsch
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: Oldenburgisch-Ostfriesischer Wasserverband</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>15/07/2025
+11:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>385549-2025</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/385549-2025</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Germany – Software integration consultancy services – Beratungsleistungen Prozessoptimierung und Algorithmenentwurf zu Versorgungssteuerung
+Place of performance: Germany,Mecklenburgische Seenplatte
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Dietrich-Bonhoeffer-Klinikum</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>31/07/2025
+08:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>385520-2025</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/385520-2025</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Provision of Mobile Apps Development and Maintenance
+Place of performance: Germany,Frankfurt am Main, Kreisfreie Stadt
+Main nature of the contract: Services,Works
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: European Central Bank</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>28/07/2025
+12:00:46
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>385444-2025</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/385444-2025</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Gesundheitspartnerportal
+Place of performance: Germany,Berlin
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: AOK Baden - Württemberg</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Germany, Germany, Germany, Germany, Germany</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>16/07/2025
+10:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>385432-2025</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/385432-2025</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Germany – Internet service providers ISP – Gemeinde Ehekirchen - Gigabit-RL 2.0 (2023) - Auswahlverfahren einer Dienstleistungskonzession im Wirtschaftlichkeitslückenmodell für die Planung, Errichtung und den Betrieb eines Gigabit-Netzes
+Place of performance: Germany,Neuburg-Schrobenhausen
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: Gemeinde Ehekirchren</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>18/07/2025
+10:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>385354-2025</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/385354-2025</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Serviceportal Mobilfunk
+Place of performance: Germany,Kiel, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Dataport AöR</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>14/07/2025
+12:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>385352-2025</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/385352-2025</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – 1746-DE-Lagerverwaltung
+Place of performance: Germany,Mettmann
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: BWI GmbH</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>14/07/2025
+12:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>385334-2025</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/385334-2025</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – 46EU/25 Hauptfeuerwache mit Rettungswache und Integrierter Leitstelle - IT-Beratungsleistungen (Rahmenvereinbarung)
+Place of performance: Germany,Trier, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Stadt Trier</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>15/07/2025
+11:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>385322-2025</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/385322-2025</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Cloud-basierte Managed Detection und Response Lösung
+Place of performance: Germany,Aschaffenburg, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Stadt Aschaffenburg</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>15/07/2025
+10:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>385218-2025</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/385218-2025</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Germany – Software integration consultancy services – Beratungsleistungen für das Projekt „Business Development und Systementwurf für Audiocodecs im Anwen
+Place of performance: Germany,Erlangen, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Fraunhofer-Gesellschaft zur Förderung der angewandten Forschung e. V.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>16/07/2025
+10:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>385114-2025</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/385114-2025</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Entwicklung eines Sprachbuchungsassistenten
+Place of performance: Germany,Erzgebirgskreis
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: Stadt Zwönitz</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>15/07/2025
+12:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>384808-2025</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/384808-2025</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Germany – Software programming and consultancy services – Entwicklung, Implementierung und Wartung eines Rollen- und Berechtigungskonzeptes für die SAP S/4HANA-Transformation
+Change notice
+Place of performance: Germany,Heidelberg, Stadtkreis
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: Universitätsklinikum Heidelberg</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>20/06/2025
+10:01:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>384746-2025</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/384746-2025</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Germany – Programming services of systems and user software – Programmierleistungen für das Projekt Mobility-as-a-Service Plattform (MaaS)
+Place of performance: Germany,Trier, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: SWT Stadtwerke Trier Verkehrs-GmbH</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>15/07/2025
+11:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>388033-2025</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/388033-2025</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Germany – Financial leasing services – Fahrradleasing
+Place of performance: Germany,Hamburg
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Elbphilharmonie und Laeiszhalle Betriebsgesellschaft mbH</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>14/07/2025
+11:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>387048-2025</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/387048-2025</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Germany – Motor vehicle insurance services – Kfz-Versicherung VhV
+Place of performance: Germany,Dresden, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Other multiple stage procedure
+Official name: IKK classic</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>386749-2025</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/386749-2025</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Germany – Financial leasing services – Leasing (inkl. Lieferung und Montage) von einem Mehrzweckgeräteträger
+Place of performance: Germany,Ostprignitz-Ruppin
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Stadt Wittstock/Dosse</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>386473-2025</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/386473-2025</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Germany – Financial leasing services – RV Jobradleasing
+Place of performance: Germany,Bochum, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Stadt Bochum, Referat Zentraler Einkauf</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>15/07/2025
+12:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>386438-2025</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/386438-2025</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Germany – Financial leasing services – Rahmenvereinbarung zum Fahrradleasing
+Change notice
+Place of performance: Germany,Frankfurt am Main, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: Mainova AG</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>24/06/2025
+23:59:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tender_history.xlsx
+++ b/tender_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3110,6 +3110,780 @@
         </is>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>391739-2025</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/391739-2025</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Germany – Software-related services – Managed Security Operations Center (SOC)
+Place of performance: Germany,München, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: MGS Münchner Gesellschaft für Stadterneuerung mbH</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>24/07/2025
+12:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>391566-2025</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/391566-2025</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Germany – Software programming and consultancy services – Programmierarbeiten SMART DigitalPakt
+Place of performance: Germany,Duisburg, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Negotiated without prior call for competition
+Official name: Universität Duisburg-Essen</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>391520-2025</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/391520-2025</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Innovationsmanagement, Projektmanagement, Testautomatisierung, Testmanagement und Kundenhotline, Customizing
+Place of performance: Germany,Wiesbaden, Kreisfreie Stadt,Anywhere in the European Economic Area
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: Wirtschafts- und Infrastrukturbank Hessen - rechtlich unselbstständige Anstalt in der Landesbank Hessen-Thüringen Girozentrale, c/o Dentons Europe (Germany) GmbH &amp; Co. KG</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>07/07/2025
+12:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>391295-2025</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/391295-2025</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Germany – Software programming and consultancy services – Softwareleistungen im Bereich des Facility Managements (CAFM)
+Change notice
+Place of performance: Germany,Magdeburg, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: Immobilien- und Projektmanagementgesellschaft Sachsen-Anhalt mbH</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>26/06/2025
+10:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>390934-2025</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/390934-2025</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Germany – Software-related services – Implementierung einer AVA-Software
+Change notice
+Place of performance: Germany,Stuttgart, Stadtkreis
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: Zweckverband Bodensee-Wasserversorgung</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>03/07/2025
+11:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>390883-2025</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/390883-2025</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Betrieb der Anwendung eGovSAD
+Place of performance: Germany,Gießen, Landkreis
+Main nature of the contract: Services
+Type of procedure: Negotiated without prior call for competition
+Official name: ekom21 – Kommunales Gebietsrechenzentrum Hessen</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>390736-2025</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/390736-2025</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – AA Rahmenvereinbarung für Software-Entwicklungsdienstleistungen
+Change notice
+Place of performance: Germany,Berlin
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Bundesamt für Auswärtige Angelegenheiten</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>17/07/2025
+10:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>390113-2025</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/390113-2025</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Loga HR
+Place of performance: Germany,Potsdam, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Negotiated without prior call for competition
+Official name: Brandenburgischer IT-Dienstleister</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>389964-2025</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/389964-2025</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Germany – Platform interconnectivity software development services – MSHIP Market Survey for Power Flow
+Place of performance: Germany,Stuttgart, Stadtkreis
+Main nature of the contract: Services,Supplies
+Official name: TransnetBW GmbH</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>389724-2025</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/389724-2025</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Germany – Technical computer support services – Bundesstadt Bonn - Rahmenvereinbarung über die Leistung von IT-Support für die pädagogischen Netze und die Schulverwaltungsnetze in den insgesamt 89 städtischen Bonner Schulen ab dem 01.01.2026
+Place of performance: Germany,Bonn, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Bundesstadt Bonn - Referat Vergabedienste</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>17/07/2025
+10:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>389499-2025</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/389499-2025</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Implementierung einer Plattform für das digitale Aufnahme- und Behandlungsmanagement
+Place of performance: Germany,Bremen, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Negotiated without prior call for competition
+Official name: Gesundheit Nord gGmbH</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>389473-2025</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/389473-2025</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Unterstützungsleistung bei dem Einsatz von SAP Payroll und den Folgeaktivitäten und Betreuung der Anwendung SAP Payroll
+Place of performance: Germany,Bonn, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: Deutscher Akademischer Austauschdienst e. V.</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>389438-2025</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/389438-2025</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – 23014 Stadt Biberach - Server &amp; Storage PG - Schulen BC
+Change notice
+Place of performance: Germany,Biberach
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Stadt Biberach - Amt für Bildung, Betreuung und Sport</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>30/06/2025
+14:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>389314-2025</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/389314-2025</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Fachberatung IT Service Management für Applikationen, Betriebssysteme und Datenbanksysteme
+Change notice
+Place of performance: Germany,Heidelberg, Stadtkreis
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: Universitätsklinikum Heidelberg</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>23/06/2025
+10:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>389310-2025</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/389310-2025</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Betriebsunterstützung, Support und Weiterentwicklung Sharepoint Online und M365, inklusive Intranet, Dokumentenmanagementsystem und Ausbau workflowbasierter Anwendungen
+Place of performance: Germany,Bonn, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: Deutscher Akademischer Austauschdienst e. V.</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>389172-2025</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/389172-2025</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – GitLab - Betrieb, Wartung, Lizenzen und Support
+Change notice
+Place of performance: Germany,Frankfurt am Main, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: FITKO (Föderale IT-Kooperation)</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>20/06/2025
+12:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>388938-2025</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/388938-2025</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Germany – Information technology services – Informationssicherheitsbeauftrage:r
+Place of performance: Germany,München, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: Einkauf</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>18/07/2025
+12:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>388596-2025</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/388596-2025</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Germany – Systems and technical consultancy services – Verlängerung des Oracle-Supports
+Place of performance: Germany,Berlin
+Main nature of the contract: Services
+Type of procedure: Negotiated without prior call for competition
+Official name: Berliner Verkehrsbetriebe, Bereich Einkauf/Materialwirtschaft</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>388638-2025</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/388638-2025</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Germany – Banking and investment services – Verwahrstelle
+Place of performance: Germany,Mainz, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Berufsgenossenschaft Holz und Metall</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>05/08/2025
+10:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tender_history.xlsx
+++ b/tender_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3884,6 +3884,1198 @@
         </is>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>395290-2025</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/395290-2025</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Germany – Software supply services – Informationsmanagementsoftware inkl. Dokumentendigitalisierung und as-built-Prüfung der verfahrenstechnischen Dokumentation einer Müllverbrennungsanlage
+Change notice
+Place of performance: Germany,Nürnberg, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Stadt Nürnberg - Zentrale Dienste</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>21/07/2025
+23:59:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>395004-2025</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/395004-2025</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – MS-DL 2022 - Verlängerung 2025
+Place of performance: Germany,Extra-Regio NUTS 3
+Main nature of the contract: Services
+Type of procedure: Negotiated without prior call for competition
+Official name: Bundesagentur für Arbeit (BA), vertreten durch den Vorstand, hier vertreten durch die Leitung des Geschäftsbereiches Einkauf im BA-Service-Haus</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>394987-2025</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/394987-2025</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Germany – Programming services of systems and user software – Konzeption einer Softwarelösung für die Endlagerdokumentation radioaktiver Abfälle
+Change notice
+Place of performance: Germany,Karlsruhe, Landkreis
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: Kerntechnische Entsorgung Karlsruhe GmbH</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>30/06/2025
+09:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>394732-2025</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/394732-2025</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Germany – Custom software development services – Programmierung von Software
+Place of performance: Germany,Schleswig-Flensburg
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Kreis Schleswig-Flensburg - Der Landrat</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>16/07/2025
+23:59:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>394711-2025</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/394711-2025</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Germany – Weir construction work – Markterkundung über die Maßnahme Grundinstandsetzung sechs Mainwehre
+Place of performance: Germany,Aschaffenburg, Kreisfreie Stadt,Würzburg, Landkreis
+Main nature of the contract: Works,Services
+Official name: Wasserstraßen-Neubauamt Aschaffenburg</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>394592-2025</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/394592-2025</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Germany – Internet service providers ISP – Gemeinde Sigmarszell - Gigabit-RL 2.0 - Bestimmung Netzbetreiber für Planung, Errichtung und Betrieb eines Gigabit-Netzes im Wirtschaftlichkeitslückenmodell
+Place of performance: Germany,Lindau (Bodensee)
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: Gemeinde Sigmarszell</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>394573-2025</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/394573-2025</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Germany – Industry specific software development services – Software für eine Leitstellenlösung (ITCS) mit integriertem Angebotsplanungsmodul
+Place of performance: Germany,Barnim
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: Barnimer Busgesellschaft mbH</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>16/07/2025
+10:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>394409-2025</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/394409-2025</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Germany – Software supply services – Bereitstellung von Public-Cloud-Lizenzen für SAP BTP Enterprise Agreement
+Change notice
+Place of performance: Germany,Berlin
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: Charité - Universitätsmedizin Berlin</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>04/07/2025
+10:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>394373-2025</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/394373-2025</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Germany – Software programming and consultancy services – piaf10 - Verhandlungsverfahren mit Teilnahmewettbewerb Planungs-, Informations- und Auswertungssystem für das Feldversuchswesen
+Place of performance: Germany,Münster, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: Landwirtschaftskammer Nordrhein-Westfalen</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>394292-2025</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/394292-2025</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Germany – Business services: law, marketing, consulting, recruitment, printing and security – SAP S/4 HANA Implementierung bei der HEnW
+Change notice
+Place of performance: Germany,Anywhere in the given country
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Hamburger Energiewerke GmbH</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>04/07/2025
+12:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>394066-2025</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/394066-2025</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Germany – Data transmission services – Wartungs- und Kommunikationsservicevertrag
+Place of performance: Germany,Hildesheim
+Main nature of the contract: Services
+Type of procedure: Negotiated without prior call for competition
+Official name: NLWKN Betriebsstelle Hannover-Hildesheim (Hildesheim)</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>394036-2025</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/394036-2025</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Unterstützung bei IT-Ausschreibungen
+Place of performance: Germany,Region Hannover
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: Medizinischer Dienst Niedersachsen</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>17/07/2025
+12:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>393765-2025</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/393765-2025</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Rahmenvertrag für Unterstützungs- und Beratungsleistungen im Bereich Neues Intranet auf Basis von MS SharePoint
+Place of performance: Germany,Region Hannover
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: BG-Phoenics GmbH</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>393730-2025</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/393730-2025</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Germany – Software-related services – TYPO3 Support und Weiterentwicklung Website
+Place of performance: Germany,Erfurt, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: Universität Erfurt</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>393552-2025</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/393552-2025</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – IoT-Glatteissensorik für den Landkreis Hof - Smart City
+Place of performance: Germany,Hof, Landkreis
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Landkreis Hof</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>393385-2025</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/393385-2025</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Untersützung b. Entwicklungsleistungen der Appl. in SAP S4HANA
+Place of performance: Germany,Stuttgart, Stadtkreis
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Universität Stuttgart</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>393287-2025</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/393287-2025</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Serviceleistungen &amp; Erweiterungen an den IT-Systemen der Schulen im Rhein-Neckar-Kreis
+Place of performance: Germany,Rhein-Neckar-Kreis
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Landratsamt Rhein-Neckar-Kreis</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>393206-2025</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/393206-2025</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Germany – Architectural, engineering and planning services – Neubaustrecke Dresden - Prag: Tunnelbautechnische Unterstützung für den grenzübergreifenden Planungsraum (Projektteil 2)
+Place of performance: Germany,Dresden, Kreisfreie Stadt
+Main nature of the contract: Services
+Official name: DB Netz AG (Bukr 16)</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>393132-2025</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/393132-2025</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Germany – Data network management and support services – Erneuerung der integrierten hyperkonvergenten Infrastruktur
+Place of performance: Germany,Hamburg
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Medizinischer Dienst Nord</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>18/07/2025
+10:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>392956-2025</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/392956-2025</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Germany – Information technology services – ISB Gesundheitsholding Lüneburg
+Place of performance: Germany,Lüneburg, Landkreis
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Gesundheitsholding Lüneburg GmbH</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>392678-2025</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/392678-2025</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Arbeitsplatz Managed Services (inkl. grundlegender Infrastruktur Services)
+Change notice
+Place of performance: Germany,Berlin
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: BARMER Beschaffung und Vergabe</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>04/07/2025
+10:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>392352-2025</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/392352-2025</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Germany – Software programming and consultancy services – Entwicklung und Betrieb eines Data Hub für die Bundesnetzagentur
+Place of performance: Germany,Bonn, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: Bundesnetzagentur</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>392182-2025</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/392182-2025</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Support assistive Software für Barrierefreie Arbeitsplätze
+Place of performance: Germany,Berlin
+Main nature of the contract: Services
+Type of procedure: Negotiated without prior call for competition
+Official name: DRV Bund Einkaufsmanagement</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>392152-2025</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/392152-2025</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Germany – Software-related services – Rahmenvertrag für Softwareentwicklungs- Beratungs- und Pflegeleistungen in der ADAMAS-Fachanwendungslandschaft und ein Dienstleistungsvertrag über SW-Qualitätsprüfungen
+Place of performance: Germany,Augsburg, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: Bayerisches Landesamt für Umwelt</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>392103-2025</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/392103-2025</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – SAP Managed Services - Infrastruktur und SAP Basisbetriebsleistungen
+Change notice
+Place of performance: Germany,Wuppertal, Kreisfreie Stadt,Berlin
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: BARMER Beschaffung und Vergabe</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Germany, Germany</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>08/07/2025
+10:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>392022-2025</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/392022-2025</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Rahmenvereinbarung über Beratungs- und Unterstützungsleistungen zum Aufbau des Services „Digitale Serviceberatung“
+Place of performance: Germany,Region Hannover
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: BG-Phoenics GmbH</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>391877-2025</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/391877-2025</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Germany – Software programming and consultancy services – Voicebot-Beschaffung
+Place of performance: Germany,Berlin
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: BKK mkk -meine krankenkasse</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>17/07/2025
+12:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>391810-2025</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/391810-2025</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Germany – Software development services – eduWorkspace
+Place of performance: Germany,Koblenz, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Negotiated without prior call for competition
+Official name: Pädagogisches Landesinstitut Rheinland-Pfalz</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>393627-2025</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/393627-2025</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Germany – Financial leasing services – Rahmenvereinbarung zum Fahrradleasing
+Place of performance: Germany,Dessau-Roßlau, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Stadt Dessau-Roßlau, Zentr. Vergabestelle</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>17/07/2025
+09:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>392293-2025</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/392293-2025</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Germany – Insurance services – Industrielle Sachversicherung und Elektronikversicherung
+Place of performance: Germany,Stuttgart, Stadtkreis
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: Kassenärztliche Vereinigung Baden-Württemberg</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>17/07/2025
+12:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tender_history.xlsx
+++ b/tender_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:G137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5076,6 +5076,918 @@
         </is>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>398732-2025</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/398732-2025</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Univention Corporate Server (UCS) und UCS@school + Technical Account Manager (TAM)
+Place of performance: Germany,Chemnitz, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Negotiated without prior call for competition
+Official name: Stadt Chemnitz, Hauptamt Abt. Zentrale Dienste /Submission</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>19/06/2025</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>398654-2025</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/398654-2025</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Germany – Software-related services – RBL Oberfläche
+Place of performance: Germany,Berlin
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: Berliner Verkehrsbetriebe, Bereich Einkauf/ Materialwirtschaft</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>19/06/2025</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>29/07/2025
+10:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>398653-2025</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/398653-2025</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Fachsoftware Jobcenter Ammerland
+Change notice
+Place of performance: Germany,Ammerland
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Jobcenter Ammerland</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>19/06/2025</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>18/07/2025
+11:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>398517-2025</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/398517-2025</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Auslagerung NEON
+Place of performance: Germany,Köln, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Negotiated without prior call for competition
+Official name: ARD ZDF Deutschlandradio Beitragsservice</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>19/06/2025</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>398477-2025</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/398477-2025</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Germany – Software supply services – Symantec Lizenzen
+Place of performance: Germany,Anywhere in the given country
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Vergabe und Beschaffungszentrum Dortmund</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>19/06/2025</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>23/07/2025
+20:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>398391-2025</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/398391-2025</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Germany – Internet services – Hosting AnKa
+Place of performance: Germany,Karlsruhe, Stadtkreis
+Main nature of the contract: Services
+Official name: LUBW Landesanstalt für Umwelt Baden-Württemberg</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>19/06/2025</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>398341-2025</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/398341-2025</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Germany – Platform interconnectivity software development services – MSHIP Market Survey for Power Flow
+Change notice
+Place of performance: Germany,Stuttgart, Stadtkreis
+Main nature of the contract: Services,Supplies
+Official name: TransnetBW GmbH</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>19/06/2025</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>398033-2025</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/398033-2025</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Landesmesse Stuttgart GmbH &amp; Co. KG - Europaweite Vergabe einer softwarebasierten Zutrittskontrolllösung für Messeveranstaltungen und Kongresse
+Place of performance: Germany,Esslingen
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: Landesmesse Stuttgart GmbH &amp; Co. KG</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>19/06/2025</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>18/07/2025
+12:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>398010-2025</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/398010-2025</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Screening der Geschäftsprozesse
+Place of performance: Germany,München, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Bayerisches Staatsministerium für Digitales</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>19/06/2025</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>397828-2025</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/397828-2025</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Rahmenvertrag externe Unterstützung technischer Anwendungsbetrieb Los 3
+Place of performance: Germany,Bonn, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Informationstechnikzentrum Bund (ITZBund)</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>19/06/2025</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>397686-2025</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/397686-2025</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Germany – Software package and information systems – Intranet: Private Cloud Content-Management-System (ready to use)
+Place of performance: Germany,Bonn, Kreisfreie Stadt
+Main nature of the contract: Supplies,Services
+Type of procedure: Negotiated without prior call for competition
+Official name: Bundesanstalt für Finanzdienstleistung</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>19/06/2025</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>397645-2025</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/397645-2025</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Germany – Industry specific software development services – Planungs-, Erstellungs-, Pflege- und Dienstleistungen für das meteorologische Arbeitsplatzsystem NinJo
+Place of performance: Germany,Offenbach am Main, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Restricted
+Official name: Deutscher Wetterdienst</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>19/06/2025</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>21/07/2025
+10:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>397458-2025</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/397458-2025</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Beratungs- und Entwicklungsleistungen SAP BI in zwei Losen (HCC)
+Place of performance: Germany,Wiesbaden, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Land Hessen, vertreten durch die Hessische Zentrale für Datenverarbeitung</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>19/06/2025</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>397219-2025</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/397219-2025</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Germany – Project-management services other than for construction work – Weiterführung des Projekts „Schnittstellenharmonisierung und Austauschplattform Trinkwasserhygiene“ (SHAPTH)
+Place of performance: Germany,Erlangen, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Landesamt für Gesundheit und Lebensmittelsicherheit</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>19/06/2025</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>397189-2025</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/397189-2025</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Germany – Software-related services – Rahmenvereinbarung Robotic Process Automation (RPA) Plattform UiPath
+Place of performance: Germany,Nürnberg, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Restricted
+Official name: Stadt Nürnberg - Zentrale Dienste</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>19/06/2025</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>21/07/2025
+23:59:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>397174-2025</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/397174-2025</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – ISP-Backup 2025
+Place of performance: Germany,Extra-Regio NUTS 3
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: Bundesagentur für Arbeit (BA), vertreten durch den Vorstand, hier vertreten durch die Leitung des Geschäftsbereiches Einkauf im BA-Service-Haus</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>19/06/2025</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>21/07/2025
+14:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>397119-2025</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/397119-2025</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Managed Services Enterprise Core Infrastruktur
+Change notice
+Place of performance: Germany,Berlin
+Main nature of the contract: Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: BARMER Beschaffung und Vergabe</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Germany, Germany</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>19/06/2025</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>07/07/2025
+10:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>396558-2025</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/396558-2025</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Germany – Printing and related services – Rahmenvereinbarung Bestellshop, Druck und Versand für Werbemittel und Gewinnlisten
+Place of performance: Germany,Hamburg
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: GKL Gemeinsame Klassenlotterie der Länder AöR</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>19/06/2025</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>17/07/2025
+12:00:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>396451-2025</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/396451-2025</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Erstellung von Vorgabendokumenten zur Zertifizierung von Komponenten in 5G-Netzen nach CC und BSZ
+Place of performance: Germany,Bonn, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Bundesamt für Sicherheit in der Informationstechnik</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>19/06/2025</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>395934-2025</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/395934-2025</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Rahmenvertra externe Unterstützung technischer Anwendungsbetrieb Los 4
+Place of performance: Germany,Bonn, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Informationstechnikzentrum Bund (ITZBund)</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>19/06/2025</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>395883-2025</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/395883-2025</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Germany – IT services: consulting, software development, Internet and support – Rahmenvertrag externe Unterstützung technischer Anwendungsbetrieb Los 2
+Place of performance: Germany,Bonn, Kreisfreie Stadt
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Informationstechnikzentrum Bund (ITZBund)</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>19/06/2025</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>395852-2025</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/395852-2025</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Germany – Access control system – SV-ELE240731-003 Neuausrichtung Systemlandschaft M-Bäder
+Place of performance: Germany,München, Kreisfreie Stadt
+Main nature of the contract: Supplies,Services
+Type of procedure: Negotiated with prior publication of a call for competition / competitive with negotiation
+Official name: SWM Services GmbH</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>19/06/2025</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>IT/Consulting</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>397315-2025</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://ted.europa.eu/en/notice/-/detail/397315-2025</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Germany – Financial leasing services – Kreisverwaltung, Kreis Bergstraße - JobRad Partnerfirma (Rahmenvereinbarung)
+Place of performance: Germany,Bergstraße
+Main nature of the contract: Services
+Type of procedure: Open
+Official name: Kreis Bergstraße</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>19/06/2025</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>21/07/2025
+09:30:00
+(UTC+2)</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
